--- a/biology/Zoologie/Calathus_fuscipes/Calathus_fuscipes.xlsx
+++ b/biology/Zoologie/Calathus_fuscipes/Calathus_fuscipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calathus fuscipes est une espèce de Coléoptères carabiques que l'on trouve dans presque tous les pays d'Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calathus fuscipes est une espèce de Coléoptères carabiques que l'on trouve dans presque tous les pays d'Europe.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 avril 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 avril 2024) :
 Calathus fuscipes algiricus Gautier des Cottes, 1866
 Calathus fuscipes disiunctus F.Battoni &amp; Vereschagina, 1984
 Calathus fuscipes fuscipes (Goeze, 1777)
@@ -546,11 +560,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Calathus fuscipes (Goeze, 1777)[2].
-L'espèce a été initialement classée dans le genre Carabus sous le protonyme Carabus fuscipes Goeze, 1777[2].
-Calathus fuscipes a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Calathus fuscipes (Goeze, 1777).
+L'espèce a été initialement classée dans le genre Carabus sous le protonyme Carabus fuscipes Goeze, 1777.
+Calathus fuscipes a pour synonyme :
 Carabus fuscipes Goeze, 1777</t>
         </is>
       </c>
